--- a/zoho.xlsx
+++ b/zoho.xlsx
@@ -1,41 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurielwish/Desktop/Work:Projects/Companies/Modix3D/Zoho/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940C995-5FBB-2145-AE21-C5BAE6606CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Departments" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Order (by ID)</t>
+  </si>
+  <si>
+    <t>Total Tickets Max</t>
+  </si>
+  <si>
+    <t>Waiting on Us Tickets Max</t>
+  </si>
+  <si>
+    <t>Number of Tickets Assigned Currently</t>
+  </si>
+  <si>
+    <t>Department:</t>
+  </si>
+  <si>
+    <t>Sandbox</t>
+  </si>
+  <si>
+    <t>Lazar Jovic</t>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>Max Sobolev</t>
+  </si>
+  <si>
+    <t>Oleg Yermanok</t>
+  </si>
+  <si>
+    <t>Omri Gazit</t>
+  </si>
+  <si>
+    <t>On Zoarezh</t>
+  </si>
+  <si>
+    <t>Saar Neufeld</t>
+  </si>
+  <si>
+    <t>Shachar  Gafni</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Modix</t>
+  </si>
+  <si>
+    <t>846378000000006907</t>
+  </si>
+  <si>
+    <t>846378000000705029</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +133,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -86,44 +162,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -151,14 +227,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -186,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -197,234 +307,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Agent Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Agent ID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Order (by ID)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total Tickets Max</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Waiting on Us Tickets Max</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Number of Tickets Assigned Currently</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Lazar Jovic</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -441,10 +501,17 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Max Sobolev</v>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP(Main!J1,Departments!A2:B10,2,FALSE)</f>
+        <v>846378000000705029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -462,9 +529,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Oleg Yermanok</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -482,9 +549,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Omri Gazit</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -502,9 +569,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>On Zoarezh</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -522,9 +589,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Saar Neufeld</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -542,9 +609,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Shachar  Gafni</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -565,7 +632,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError sqref="A2:J8 A1:C1 F1:J1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/zoho.xlsx
+++ b/zoho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurielwish/Desktop/Work:Projects/Companies/Modix3D/Zoho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940C995-5FBB-2145-AE21-C5BAE6606CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A84C9-48E9-D540-B337-5169EB0985D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:J8 A1:C1 F1:J1" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:J8 A1:B1 F1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/zoho.xlsx
+++ b/zoho.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Departments" sheetId="2" r:id="rId2"/>
+    <sheet name="Main Orig" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -398,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -414,19 +415,22 @@
         <v>Order (by ID)</v>
       </c>
       <c r="D1" t="str">
+        <v>Priority On/Off</v>
+      </c>
+      <c r="E1" t="str">
         <v>Total Tickets Max</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Waiting on Us Tickets Max</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Number of Tickets Assigned Currently</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Department:</v>
       </c>
-      <c r="J1" t="str">
-        <v>Modix</v>
+      <c r="K1" t="str">
+        <v>Sandbox</v>
       </c>
     </row>
     <row r="2">
@@ -439,21 +443,24 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>100</v>
+      <c r="D2" t="str">
+        <v>t</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>78</v>
-      </c>
-      <c r="I2" t="str">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="str">
         <v>ID:</v>
       </c>
-      <c r="J2" t="str">
-        <f>VLOOKUP(Main!J1,Departments!A2:B10,2,FALSE)</f>
-        <v>846378000000006907</v>
+      <c r="K2" t="str">
+        <f>VLOOKUP(Main!K1,Departments!A2:B10,2,FALSE)</f>
+        <v>846378000000705029</v>
       </c>
     </row>
     <row r="3">
@@ -466,14 +473,17 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>25</v>
+      <c r="D3" t="str">
+        <v>t</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -486,14 +496,17 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="str">
+        <v>t</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -506,14 +519,17 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>30</v>
+      <c r="D5" t="str">
+        <v>f</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -526,14 +542,17 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>30</v>
+      <c r="D6" t="str">
+        <v>f</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -546,40 +565,23 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>30</v>
+      <c r="D7" t="str">
+        <v>f</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Shachar  Gafni</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -621,4 +623,192 @@
     <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Agent Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Agent ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Order (by ID)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Total Tickets Max</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Waiting on Us Tickets Max</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Number of Tickets Assigned Currently</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Department:</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Modix</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Lazar Jovic</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>78</v>
+      </c>
+      <c r="I2" t="str">
+        <v>ID:</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP('Main Orig'!J1,Departments!A2:B10,2,FALSE)</f>
+        <v>846378000000006907</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Max Sobolev</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Oleg Yermanok</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Omri Gazit</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>On Zoarezh</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>x</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Saar Neufeld</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="str">
+        <v>x</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Shachar  Gafni</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <v>x</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/zoho.xlsx
+++ b/zoho.xlsx
@@ -1,43 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurielwish/Desktop/Work:Projects/Companies/Modix3D/Zoho/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637CA5B0-15C9-7246-AFF8-10469A8B3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Departments" sheetId="2" r:id="rId2"/>
     <sheet name="Main Orig" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Order (by ID)</t>
+  </si>
+  <si>
+    <t>Priority On/Off</t>
+  </si>
+  <si>
+    <t>Total Tickets Max</t>
+  </si>
+  <si>
+    <t>Waiting on Us Tickets Max</t>
+  </si>
+  <si>
+    <t>Number of Tickets Assigned Currently</t>
+  </si>
+  <si>
+    <t>Department:</t>
+  </si>
+  <si>
+    <t>Sandbox</t>
+  </si>
+  <si>
+    <t>Lazar Jovic</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>Max Sobolev</t>
+  </si>
+  <si>
+    <t>Oleg Yermanok</t>
+  </si>
+  <si>
+    <t>Omri Gazit</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>On Zoarezh</t>
+  </si>
+  <si>
+    <t>Saar Neufeld</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Modix</t>
+  </si>
+  <si>
+    <t>846378000000006907</t>
+  </si>
+  <si>
+    <t>846378000000705029</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Shachar  Gafni</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,13 +146,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -88,44 +175,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -153,14 +240,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -188,6 +292,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -199,243 +320,187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Agent Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Agent ID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Order (by ID)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Priority On/Off</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Total Tickets Max</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Waiting on Us Tickets Max</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Number of Tickets Assigned Currently</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Department:</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Sandbox</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Lazar Jovic</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -443,8 +508,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="str">
-        <v>t</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -455,17 +520,17 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="J2" t="str">
-        <v>ID:</v>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
       <c r="K2" t="str">
         <f>VLOOKUP(Main!K1,Departments!A2:B10,2,FALSE)</f>
         <v>846378000000705029</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Max Sobolev</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -473,8 +538,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="str">
-        <v>t</v>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -486,9 +551,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Oleg Yermanok</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -496,8 +561,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="str">
-        <v>t</v>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -509,9 +574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Omri Gazit</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -519,8 +584,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="str">
-        <v>f</v>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -532,9 +597,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>On Zoarezh</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -542,8 +607,8 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="str">
-        <v>f</v>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -555,9 +620,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Saar Neufeld</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -565,8 +630,8 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" t="str">
-        <v>f</v>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -581,86 +646,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError sqref="A2:K7 A1:C1 E1:K1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Modix</v>
-      </c>
-      <c r="B2" t="str">
-        <v>846378000000006907</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Sandbox</v>
-      </c>
-      <c r="B3" t="str">
-        <v>846378000000705029</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Agent Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Agent ID</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Order (by ID)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total Tickets Max</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Waiting on Us Tickets Max</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Number of Tickets Assigned Currently</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Department:</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Modix</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Lazar Jovic</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -677,17 +744,17 @@
       <c r="F2">
         <v>78</v>
       </c>
-      <c r="I2" t="str">
-        <v>ID:</v>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
       <c r="J2" t="str">
         <f>VLOOKUP('Main Orig'!J1,Departments!A2:B10,2,FALSE)</f>
         <v>846378000000006907</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Max Sobolev</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -705,9 +772,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Oleg Yermanok</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -725,9 +792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Omri Gazit</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -745,15 +812,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>On Zoarezh</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="str">
-        <v>x</v>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -765,15 +832,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Saar Neufeld</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="str">
-        <v>x</v>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -785,15 +852,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Shachar  Gafni</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="str">
-        <v>x</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -808,7 +875,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
+    <ignoredError sqref="A1:J8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/zoho.xlsx
+++ b/zoho.xlsx
@@ -1,122 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurielwish/Desktop/Work:Projects/Companies/Modix3D/Zoho/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637CA5B0-15C9-7246-AFF8-10469A8B3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Departments" sheetId="2" r:id="rId2"/>
     <sheet name="Main Orig" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
-    <t>Agent ID</t>
-  </si>
-  <si>
-    <t>Order (by ID)</t>
-  </si>
-  <si>
-    <t>Priority On/Off</t>
-  </si>
-  <si>
-    <t>Total Tickets Max</t>
-  </si>
-  <si>
-    <t>Waiting on Us Tickets Max</t>
-  </si>
-  <si>
-    <t>Number of Tickets Assigned Currently</t>
-  </si>
-  <si>
-    <t>Department:</t>
-  </si>
-  <si>
-    <t>Sandbox</t>
-  </si>
-  <si>
-    <t>Lazar Jovic</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>ID:</t>
-  </si>
-  <si>
-    <t>Max Sobolev</t>
-  </si>
-  <si>
-    <t>Oleg Yermanok</t>
-  </si>
-  <si>
-    <t>Omri Gazit</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>On Zoarezh</t>
-  </si>
-  <si>
-    <t>Saar Neufeld</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Modix</t>
-  </si>
-  <si>
-    <t>846378000000006907</t>
-  </si>
-  <si>
-    <t>846378000000705029</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Shachar  Gafni</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,21 +67,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -175,44 +88,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -240,31 +153,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -292,23 +188,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -320,187 +199,243 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Agent Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Agent ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Order (by ID)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Priority On/Off</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Total Tickets Max</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Waiting on Us Tickets Max</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Number of Tickets Assigned Currently</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Department:</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Sandbox</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Lazar Jovic</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -508,8 +443,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2" t="str">
+        <v>t</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -520,17 +455,17 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="J2" t="str">
+        <v>ID:</v>
       </c>
       <c r="K2" t="str">
         <f>VLOOKUP(Main!K1,Departments!A2:B10,2,FALSE)</f>
         <v>846378000000705029</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Max Sobolev</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -538,8 +473,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3" t="str">
+        <v>t</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -551,9 +486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Oleg Yermanok</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -561,8 +496,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="D4" t="str">
+        <v>t</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -574,9 +509,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Omri Gazit</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -584,8 +519,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5" t="str">
+        <v>f</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -597,9 +532,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>On Zoarezh</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -607,8 +542,8 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6" t="str">
+        <v>f</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -620,9 +555,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Saar Neufeld</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -630,8 +565,8 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7" t="str">
+        <v>f</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -646,88 +581,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:K7 A1:C1 E1:K1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Modix</v>
+      </c>
+      <c r="B2" t="str">
+        <v>846378000000006907</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Sandbox</v>
+      </c>
+      <c r="B3" t="str">
+        <v>846378000000705029</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Agent Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Agent ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Order (by ID)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Total Tickets Max</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Waiting on Us Tickets Max</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Number of Tickets Assigned Currently</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Department:</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Modix</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Lazar Jovic</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -744,17 +677,17 @@
       <c r="F2">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="I2" t="str">
+        <v>ID:</v>
       </c>
       <c r="J2" t="str">
         <f>VLOOKUP('Main Orig'!J1,Departments!A2:B10,2,FALSE)</f>
         <v>846378000000006907</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Max Sobolev</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -772,9 +705,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Oleg Yermanok</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -792,9 +725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Omri Gazit</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -812,15 +745,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>On Zoarezh</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
+      <c r="C6" t="str">
+        <v>x</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -832,15 +765,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Saar Neufeld</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
+      <c r="C7" t="str">
+        <v>x</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -852,15 +785,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Shachar  Gafni</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
+      <c r="C8" t="str">
+        <v>x</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -875,7 +808,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J8" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
   </ignoredErrors>
 </worksheet>
 </file>